--- a/Feature Data.xlsx
+++ b/Feature Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stajyer\Documents\GitHub\milling-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{79D49411-4360-4887-9CAD-46237B7CF0A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F0776-567C-4D74-AF78-99C5405502CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{67E0F688-C1AF-42C8-9D95-4B3A27CBFA27}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Accuracy</t>
   </si>
@@ -92,21 +92,6 @@
     <t>no sampling, forward selection</t>
   </si>
   <si>
-    <t>Logistic Regression (cost-sensitive, {0: 1, 1: 6})</t>
-  </si>
-  <si>
-    <t>Decision Tree Classifier (cost-sensitive, {0: 1, 1: 2})</t>
-  </si>
-  <si>
-    <t>Random Forest (cost-sensitive, {0: 1, 1: 5})</t>
-  </si>
-  <si>
-    <t>Support Vector Classifier (cost-sensitive, {0: 1, 1: 5})</t>
-  </si>
-  <si>
-    <t>Passive Aggressive Classifier (cost-sensitive, {0: 1, 1: 18})</t>
-  </si>
-  <si>
     <t>[[2467 39][ 113 93]]</t>
   </si>
   <si>
@@ -119,27 +104,9 @@
     <t>[[2466 40] [ 83 123]]</t>
   </si>
   <si>
-    <t>Voting(hard, 5 classifiers)</t>
-  </si>
-  <si>
-    <t>Voting(soft, 5 classifiers)</t>
-  </si>
-  <si>
-    <t>Voting (hard, 6 classifiers)</t>
-  </si>
-  <si>
-    <t>Voting (soft, 6 classifiers)</t>
-  </si>
-  <si>
-    <t>hard/soft, 5 classifiers</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>hard/soft, 6 classifiers</t>
-  </si>
-  <si>
     <t>"LogisticRegression", "DecisionTreeClassifier", "RandomForestClassifier", "GradientBoostingClassifier", "KNeighborsClassifier"</t>
   </si>
   <si>
@@ -168,6 +135,105 @@
   </si>
   <si>
     <t>Passive Aggressive Classifier (Random Oversampling)</t>
+  </si>
+  <si>
+    <t>Logistic Regression (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>Random Forest (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>Voting(no sampling, hard, 5 classifiers)</t>
+  </si>
+  <si>
+    <t>Voting(no sampling, soft, 5 classifiers)</t>
+  </si>
+  <si>
+    <t>no sampling, hard/soft, 5 classifiers</t>
+  </si>
+  <si>
+    <t>no sampling, hard/soft, 6 classifiers</t>
+  </si>
+  <si>
+    <t>Voting (no sampling, hard, 6 classifiers)</t>
+  </si>
+  <si>
+    <t>Voting (no sampling, soft, 6 classifiers)</t>
+  </si>
+  <si>
+    <t>Gradient Boosting (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbours (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>AdaBoost Classifier (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Classifier (Random Undersampling)</t>
+  </si>
+  <si>
+    <t>Logistic Regression (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>Random Forest (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>Gradient Boosting (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbours (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>AdaBoost Classifier (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Classifier (Hybrid Sampling)</t>
+  </si>
+  <si>
+    <t>Random Forest (Random Oversampling, forward selection)</t>
+  </si>
+  <si>
+    <t>Logistic Regression (ROS, cost-sensitive, {0: 1, 1: 5}, F1)</t>
+  </si>
+  <si>
+    <t>Logistic Regression (cost-sensitive, {0: 1, 1: 6}, F1)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (cost-sensitive, {0: 1, 1: 2}, F1)</t>
+  </si>
+  <si>
+    <t>Random Forest (cost-sensitive, {0: 1, 1: 5}, F1)</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier (cost-sensitive, {0: 1, 1: 5}, F1)</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Classifier (cost-sensitive, {0: 1, 1: 18}, F1)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (ROS, cost-sensitive, {0: 1, 1: 10}, F1)</t>
+  </si>
+  <si>
+    <t>Random Forest (ROS, cost-sensitive, {0: 1, 1: 4}, F1)</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier (ROS, cost-sensitive, {0: 1, 1: 1}, F1)</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Classifier (ROS, cost-sensitive, {0: 1, 1: 11}, F1)</t>
   </si>
 </sst>
 </file>
@@ -226,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +305,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,15 +625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5264A-4086-46D9-8AD8-B7539128CB63}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -588,8 +660,8 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -624,7 +696,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>0.846607</v>
@@ -652,7 +724,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>0.78252999999999995</v>
@@ -680,25 +752,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.77178599999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>0.94593000000000005</v>
+        <v>0.84355999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.77178599999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.94547899999999996</v>
+        <v>0.75956199999999996</v>
       </c>
       <c r="F5" s="1">
-        <v>0.88937999999999995</v>
+        <v>0.808226</v>
       </c>
       <c r="G5" s="1">
-        <v>2.4878000000000001E-2</v>
+        <v>8.2880000000000002E-3</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -708,25 +780,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>0.94469000000000003</v>
+        <v>0.82205499999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>0.94543999999999995</v>
+        <v>0.82931200000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>0.94469000000000003</v>
+        <v>0.82205499999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.94505399999999995</v>
+        <v>0.82127399999999995</v>
       </c>
       <c r="F6" s="1">
-        <v>0.59631500000000004</v>
+        <v>0.82744499999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>4.7267000000000003E-2</v>
+        <v>9.1545000000000001E-2</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -736,25 +808,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
-        <v>0.99422999999999995</v>
+        <v>0.80936399999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>0.99429599999999996</v>
+        <v>0.83076499999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>0.99422999999999995</v>
+        <v>0.80936399999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.99422900000000003</v>
+        <v>0.81393599999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>0.98065800000000003</v>
+        <v>0.82778600000000002</v>
       </c>
       <c r="G7" s="1">
-        <v>1.9255000000000001E-2</v>
+        <v>4.8006E-2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -764,25 +836,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>0.95317099999999999</v>
+        <v>0.94505799999999995</v>
       </c>
       <c r="C8" s="1">
-        <v>0.95226599999999995</v>
+        <v>0.94593000000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>0.95317099999999999</v>
+        <v>0.94505799999999995</v>
       </c>
       <c r="E8" s="1">
-        <v>0.95269000000000004</v>
+        <v>0.94547899999999996</v>
       </c>
       <c r="F8" s="1">
-        <v>0.89203500000000002</v>
+        <v>0.88937999999999995</v>
       </c>
       <c r="G8" s="1">
-        <v>2.4125000000000001E-2</v>
+        <v>2.4878000000000001E-2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -792,25 +864,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
-        <v>0.95464599999999999</v>
+        <v>0.94469000000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>0.95306199999999996</v>
+        <v>0.94543999999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>0.95464599999999999</v>
+        <v>0.94469000000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.95374599999999998</v>
+        <v>0.94505399999999995</v>
       </c>
       <c r="F9" s="1">
-        <v>0.58931900000000004</v>
+        <v>0.59631500000000004</v>
       </c>
       <c r="G9" s="1">
-        <v>2.988E-2</v>
+        <v>4.7267000000000003E-2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -820,25 +892,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
-        <v>0.99462700000000004</v>
+        <v>0.99422999999999995</v>
       </c>
       <c r="C10" s="1">
-        <v>0.99468500000000004</v>
+        <v>0.99429599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>0.99462700000000004</v>
+        <v>0.99422999999999995</v>
       </c>
       <c r="E10" s="1">
-        <v>0.99462700000000004</v>
+        <v>0.99422900000000003</v>
       </c>
       <c r="F10" s="1">
-        <v>0.98155400000000004</v>
+        <v>0.98065800000000003</v>
       </c>
       <c r="G10" s="1">
-        <v>1.6823999999999999E-2</v>
+        <v>1.9255000000000001E-2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -848,25 +920,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
-        <v>0.94395200000000001</v>
+        <v>0.995224</v>
       </c>
       <c r="C11" s="1">
-        <v>0.93708599999999997</v>
+        <v>0.99526999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>0.94395200000000001</v>
+        <v>0.995224</v>
       </c>
       <c r="E11" s="1">
-        <v>0.93822499999999998</v>
+        <v>0.995224</v>
       </c>
       <c r="F11" s="1">
-        <v>0.89789799999999997</v>
+        <v>0.99340899999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>1.6565E-2</v>
+        <v>2.1679999999999998E-3</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -876,25 +948,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
-        <v>0.97114999999999996</v>
+        <v>0.87719199999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>0.97225099999999998</v>
+        <v>0.88939599999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>0.97114999999999996</v>
+        <v>0.87719199999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.971136</v>
+        <v>0.87637799999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>0.95481000000000005</v>
+        <v>0.82296199999999997</v>
       </c>
       <c r="G12" s="1">
-        <v>3.8350000000000002E-2</v>
+        <v>8.0461000000000005E-2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -904,25 +976,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
-        <v>0.96054499999999998</v>
+        <v>0.87290900000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>0.95869700000000002</v>
+        <v>0.87168800000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>0.96054499999999998</v>
+        <v>0.87290900000000005</v>
       </c>
       <c r="E13" s="1">
-        <v>0.95936900000000003</v>
+        <v>0.87202599999999997</v>
       </c>
       <c r="F13" s="1">
-        <v>0.890486</v>
+        <v>0.75546100000000005</v>
       </c>
       <c r="G13" s="1">
-        <v>2.4836E-2</v>
+        <v>6.2205000000000003E-2</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -932,25 +1004,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>0.92293499999999995</v>
+        <v>0.95317099999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.91263899999999998</v>
+        <v>0.95226599999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>0.92293499999999995</v>
+        <v>0.95317099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.91670099999999999</v>
+        <v>0.95269000000000004</v>
       </c>
       <c r="F14" s="1">
-        <v>0.91294200000000003</v>
+        <v>0.89203500000000002</v>
       </c>
       <c r="G14" s="1">
-        <v>1.2898E-2</v>
+        <v>2.4125000000000001E-2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -960,25 +1032,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1">
-        <v>0.97095100000000001</v>
+        <v>0.95464599999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>0.97246699999999997</v>
+        <v>0.95306199999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>0.97095100000000001</v>
+        <v>0.95464599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.97093200000000002</v>
+        <v>0.95374599999999998</v>
       </c>
       <c r="F15" s="1">
-        <v>0.94973600000000002</v>
+        <v>0.58931900000000004</v>
       </c>
       <c r="G15" s="1">
-        <v>2.9672E-2</v>
+        <v>2.988E-2</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -988,25 +1060,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
-        <v>0.924041</v>
+        <v>0.99462700000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>0.85385200000000006</v>
+        <v>0.99468500000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>0.924041</v>
+        <v>0.99462700000000004</v>
       </c>
       <c r="E16" s="1">
-        <v>0.88756100000000004</v>
+        <v>0.99462700000000004</v>
       </c>
       <c r="F16" s="1">
-        <v>0.92654800000000004</v>
+        <v>0.98155400000000004</v>
       </c>
       <c r="G16" s="1">
-        <v>2.2100000000000001E-4</v>
+        <v>1.6823999999999999E-2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1016,25 +1088,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1">
-        <v>0.84955700000000001</v>
+        <v>0.99363299999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>0.93253600000000003</v>
+        <v>0.99371299999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>0.84955700000000001</v>
+        <v>0.99363299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.87794099999999997</v>
+        <v>0.99363299999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>0.43592799999999998</v>
+        <v>0.99181600000000003</v>
       </c>
       <c r="G17" s="1">
-        <v>1.2791E-2</v>
+        <v>2.2269999999999998E-3</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1044,25 +1116,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
-        <v>0.82351700000000005</v>
+        <v>0.95244700000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>0.83309200000000005</v>
+        <v>0.95638900000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>0.82351700000000005</v>
+        <v>0.95244700000000004</v>
       </c>
       <c r="E18" s="1">
-        <v>0.82233699999999998</v>
+        <v>0.95235599999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>0.80390399999999995</v>
+        <v>0.75136999999999998</v>
       </c>
       <c r="G18" s="1">
-        <v>3.4660999999999997E-2</v>
+        <v>1.6913000000000001E-2</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1072,25 +1144,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>0.93473399999999995</v>
+        <v>0.88721799999999995</v>
       </c>
       <c r="C19" s="1">
-        <v>0.92613000000000001</v>
+        <v>0.89971500000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>0.93473399999999995</v>
+        <v>0.88721799999999995</v>
       </c>
       <c r="E19" s="1">
-        <v>0.92882699999999996</v>
+        <v>0.88646899999999995</v>
       </c>
       <c r="F19" s="1">
-        <v>0.90929199999999999</v>
+        <v>0.83726400000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>1.5143E-2</v>
+        <v>8.5768999999999998E-2</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1100,25 +1172,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
-        <v>0.94349300000000003</v>
+        <v>0.85953100000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>0.94766899999999998</v>
+        <v>0.86033099999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>0.94349300000000003</v>
+        <v>0.85953100000000004</v>
       </c>
       <c r="E20" s="1">
-        <v>0.94337599999999999</v>
+        <v>0.85989000000000004</v>
       </c>
       <c r="F20" s="1">
-        <v>0.93618599999999996</v>
+        <v>0.77202000000000004</v>
       </c>
       <c r="G20" s="1">
-        <v>4.1694000000000002E-2</v>
+        <v>6.8898000000000001E-2</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1128,25 +1200,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0.91961599999999999</v>
+        <v>0.94395200000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.85353999999999997</v>
+        <v>0.93708599999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>0.91961599999999999</v>
+        <v>0.94395200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.885347</v>
+        <v>0.93822499999999998</v>
       </c>
       <c r="F21" s="1">
-        <v>0.83517600000000003</v>
+        <v>0.89789799999999997</v>
       </c>
       <c r="G21" s="1">
-        <v>0.135517</v>
+        <v>1.6565E-2</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1156,25 +1228,25 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>0.64343600000000001</v>
+        <v>0.97114999999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>0.91691299999999998</v>
+        <v>0.97225099999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>0.64343600000000001</v>
+        <v>0.97114999999999996</v>
       </c>
       <c r="E22" s="1">
-        <v>0.72670199999999996</v>
+        <v>0.971136</v>
       </c>
       <c r="F22" s="1">
-        <v>0.32718599999999998</v>
+        <v>0.95481000000000005</v>
       </c>
       <c r="G22" s="1">
-        <v>9.1494000000000006E-2</v>
+        <v>3.8350000000000002E-2</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1184,25 +1256,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
-        <v>0.49482599999999999</v>
+        <v>0.89724300000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>0.425456</v>
+        <v>0.90597799999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>0.49482599999999999</v>
+        <v>0.89724300000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.33484999999999998</v>
+        <v>0.89679200000000003</v>
       </c>
       <c r="F23" s="1">
-        <v>0.60977800000000004</v>
+        <v>0.83652099999999996</v>
       </c>
       <c r="G23" s="1">
-        <v>0.21465000000000001</v>
+        <v>8.5537000000000002E-2</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1212,25 +1284,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
-        <v>0.95648900000000003</v>
+        <v>0.87123700000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>0.95288799999999996</v>
+        <v>0.88120100000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>0.95648900000000003</v>
+        <v>0.87123700000000004</v>
       </c>
       <c r="E24" s="1">
-        <v>0.95317399999999997</v>
+        <v>0.87348000000000003</v>
       </c>
       <c r="F24" s="1">
-        <v>0.898119</v>
+        <v>0.76950700000000005</v>
       </c>
       <c r="G24" s="1">
-        <v>1.9928000000000001E-2</v>
+        <v>7.5244000000000005E-2</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1240,25 +1312,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>0.95575200000000005</v>
+        <v>0.96054499999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>0.95256099999999999</v>
+        <v>0.95869700000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>0.95575200000000005</v>
+        <v>0.96054499999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.95342400000000005</v>
+        <v>0.95936900000000003</v>
       </c>
       <c r="F25" s="1">
-        <v>0.89723399999999998</v>
+        <v>0.890486</v>
       </c>
       <c r="G25" s="1">
-        <v>2.1593000000000001E-2</v>
+        <v>2.4836E-2</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1268,25 +1340,25 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.92293499999999995</v>
       </c>
       <c r="C26" s="1">
-        <v>0.93826699999999996</v>
+        <v>0.91263899999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.92293499999999995</v>
       </c>
       <c r="E26" s="1">
-        <v>0.93690200000000001</v>
+        <v>0.91670099999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>0.90652600000000005</v>
+        <v>0.91294200000000003</v>
       </c>
       <c r="G26" s="1">
-        <v>1.6396000000000001E-2</v>
+        <v>1.2898E-2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1296,25 +1368,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
-        <v>0.95538299999999998</v>
+        <v>0.97095100000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>0.95209900000000003</v>
+        <v>0.97246699999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>0.95538299999999998</v>
+        <v>0.97095100000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>0.95297299999999996</v>
+        <v>0.97093200000000002</v>
       </c>
       <c r="F27" s="1">
-        <v>0.89734499999999995</v>
+        <v>0.94973600000000002</v>
       </c>
       <c r="G27" s="1">
-        <v>2.1588E-2</v>
+        <v>2.9672E-2</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1323,13 +1395,27 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.88471100000000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.90277399999999997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.88471100000000003</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.88357600000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.60541900000000004</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.105502</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1337,13 +1423,27 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.87959799999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.88510900000000003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.87959799999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.881104</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.77455499999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.5955999999999999E-2</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1351,13 +1451,27 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.924041</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.85385200000000006</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.924041</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.88756100000000004</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.92654800000000004</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.2100000000000001E-4</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1365,13 +1479,27 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.84955700000000001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.93253600000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.84955700000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.87794099999999997</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.43592799999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.2791E-2</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1379,13 +1507,27 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.82351700000000005</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.83309200000000005</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.82351700000000005</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.82233699999999998</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.80390399999999995</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.4660999999999997E-2</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1393,20 +1535,400 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="1">
+        <v>0.82466899999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7.1919999999999996E-3</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.82205499999999998</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.82931200000000005</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.82205499999999998</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.82127399999999995</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.82444600000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.3392000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.78260799999999997</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.81469599999999998</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.78260799999999997</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.78863399999999995</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.80067600000000005</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.1256000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.93473399999999995</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.92613000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.93473399999999995</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.92882699999999996</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.90929199999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.5143E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.94349300000000003</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.94766899999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.94349300000000003</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.94337599999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.93618599999999996</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.1694000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.87468599999999996</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.88356400000000002</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.87468599999999996</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.87409400000000004</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.77326099999999998</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8.1559000000000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.867892</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.89047200000000004</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.867892</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.87123799999999996</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.79613100000000003</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.2835000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.91961599999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.91961599999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.885347</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.83517600000000003</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.135517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.64343600000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.91691299999999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.64343600000000001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.72670199999999996</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.32718599999999998</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9.1494000000000006E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.49482599999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.425456</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.49482599999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.33484999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.60977800000000004</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.21465000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.72622299999999995</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.82341500000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.72622299999999995</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.70452499999999996</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.79925100000000004</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.0730999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.82205499999999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.82931200000000005</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.82205499999999998</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.82127399999999995</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.73175199999999996</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.132882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.79598599999999997</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.79710199999999998</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.79598599999999997</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.79650600000000005</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.69521599999999995</v>
+      </c>
+      <c r="G45" s="1">
+        <v>8.8705999999999993E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.95648900000000003</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.95288799999999996</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.95648900000000003</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.95317399999999997</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.898119</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.9928000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.95575200000000005</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.95256099999999999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.95575200000000005</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.95342400000000005</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.89723399999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.1593000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.94505799999999995</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.93826699999999996</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.94505799999999995</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.93690200000000001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.90652600000000005</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.6396000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.95538299999999998</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.95209900000000003</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.95538299999999998</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.95297299999999996</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.89734499999999995</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2.1588E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1427,22 +1949,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1455,12 +1977,12 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="172.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1469,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1490,18 +2012,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Feature Data.xlsx
+++ b/Feature Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stajyer\Documents\GitHub\milling-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F0776-567C-4D74-AF78-99C5405502CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80A5481-8EFE-4B4F-9F84-037C35EB3A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{67E0F688-C1AF-42C8-9D95-4B3A27CBFA27}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Accuracy</t>
   </si>
@@ -203,12 +203,6 @@
     <t>Passive Aggressive Classifier (Hybrid Sampling)</t>
   </si>
   <si>
-    <t>Random Forest (Random Oversampling, forward selection)</t>
-  </si>
-  <si>
-    <t>Logistic Regression (ROS, cost-sensitive, {0: 1, 1: 5}, F1)</t>
-  </si>
-  <si>
     <t>Logistic Regression (cost-sensitive, {0: 1, 1: 6}, F1)</t>
   </si>
   <si>
@@ -224,16 +218,43 @@
     <t>Passive Aggressive Classifier (cost-sensitive, {0: 1, 1: 18}, F1)</t>
   </si>
   <si>
-    <t>Decision Tree Classifier (ROS, cost-sensitive, {0: 1, 1: 10}, F1)</t>
-  </si>
-  <si>
-    <t>Random Forest (ROS, cost-sensitive, {0: 1, 1: 4}, F1)</t>
-  </si>
-  <si>
     <t>Support Vector Classifier (ROS, cost-sensitive, {0: 1, 1: 1}, F1)</t>
   </si>
   <si>
-    <t>Passive Aggressive Classifier (ROS, cost-sensitive, {0: 1, 1: 11}, F1)</t>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>vib_spindle__fft_coefficient__attr_"abs"__coeff_0'</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (ROS, forward selection)</t>
+  </si>
+  <si>
+    <t>Logistic Regression (ROS, cost-sensitive, {0: 1, 1: 4}, F1)</t>
+  </si>
+  <si>
+    <t>Random Forest (ROS, cost-sensitive, {0: 1, 1: 8}, F1)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (ROS, cost-sensitive, {0: 1, 1: 12}, F1)</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Classifier (ROS, cost-sensitive, {0: 1, 1: 3}, F1)</t>
+  </si>
+  <si>
+    <t>Logistic Regression (Hybrid, cost-sensitive, {0: 1, 1: 2}, F1)</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier (Hybrid, cost-sensitive, {0: 1, 1: 18}, F1)</t>
+  </si>
+  <si>
+    <t>Random Forest (Hybrid, cost-sensitive, {0: 1, 1: 8}, F1)</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier (Hybrid, cost-sensitive, {0: 1, 1: 2}, F1)</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Classifier (Hybrid, cost-sensitive, {0: 1, 1: 3}, F1)</t>
   </si>
 </sst>
 </file>
@@ -308,8 +329,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5264A-4086-46D9-8AD8-B7539128CB63}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +717,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>0.846607</v>
@@ -727,22 +748,22 @@
         <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>0.78252999999999995</v>
+        <v>0.520648</v>
       </c>
       <c r="C4" s="1">
-        <v>0.78405100000000005</v>
+        <v>0.93443100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.78252999999999995</v>
+        <v>0.520648</v>
       </c>
       <c r="E4" s="1">
-        <v>0.78229400000000004</v>
+        <v>0.61870700000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>0.76701299999999994</v>
+        <v>0.783188</v>
       </c>
       <c r="G4" s="1">
-        <v>2.1201999999999999E-2</v>
+        <v>2.2811999999999999E-2</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -752,25 +773,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
-        <v>0.77178599999999997</v>
+        <v>0.34476400000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.84355999999999998</v>
+        <v>0.93193199999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>0.77178599999999997</v>
+        <v>0.34476400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.75956199999999996</v>
+        <v>0.430757</v>
       </c>
       <c r="F5" s="1">
-        <v>0.808226</v>
+        <v>0.80488300000000002</v>
       </c>
       <c r="G5" s="1">
-        <v>8.2880000000000002E-3</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -783,22 +804,22 @@
         <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>0.82205499999999998</v>
+        <v>0.49373099999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>0.82931200000000005</v>
+        <v>0.93395099999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>0.82205499999999998</v>
+        <v>0.49373099999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.82127399999999995</v>
+        <v>0.59293099999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.82744499999999999</v>
+        <v>0.82929399999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>9.1545000000000001E-2</v>
+        <v>4.6623999999999999E-2</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -811,22 +832,22 @@
         <v>50</v>
       </c>
       <c r="B7" s="1">
-        <v>0.80936399999999997</v>
+        <v>0.87573699999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.83076499999999998</v>
+        <v>0.89217800000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>0.80936399999999997</v>
+        <v>0.87573699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.81393599999999999</v>
+        <v>0.88338700000000003</v>
       </c>
       <c r="F7" s="1">
-        <v>0.82778600000000002</v>
+        <v>0.812496</v>
       </c>
       <c r="G7" s="1">
-        <v>4.8006E-2</v>
+        <v>1.0673999999999999E-2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -836,25 +857,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.79719700000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>0.94593000000000005</v>
+        <v>0.92800499999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.79719700000000004</v>
       </c>
       <c r="E8" s="1">
-        <v>0.94547899999999996</v>
+        <v>0.84113300000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>0.88937999999999995</v>
+        <v>0.64572099999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>2.4878000000000001E-2</v>
+        <v>3.1630999999999999E-2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -863,26 +884,26 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.94469000000000003</v>
+        <v>0.94505799999999995</v>
       </c>
       <c r="C9" s="1">
-        <v>0.94543999999999995</v>
+        <v>0.94593000000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>0.94469000000000003</v>
+        <v>0.94505799999999995</v>
       </c>
       <c r="E9" s="1">
-        <v>0.94505399999999995</v>
+        <v>0.94547899999999996</v>
       </c>
       <c r="F9" s="1">
-        <v>0.59631500000000004</v>
+        <v>0.88937999999999995</v>
       </c>
       <c r="G9" s="1">
-        <v>4.7267000000000003E-2</v>
+        <v>2.4878000000000001E-2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -892,25 +913,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
-        <v>0.99422999999999995</v>
+        <v>0.94469000000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>0.99429599999999996</v>
+        <v>0.94543999999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>0.99422999999999995</v>
+        <v>0.94469000000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.99422900000000003</v>
+        <v>0.94505399999999995</v>
       </c>
       <c r="F10" s="1">
-        <v>0.98065800000000003</v>
+        <v>0.59631500000000004</v>
       </c>
       <c r="G10" s="1">
-        <v>1.9255000000000001E-2</v>
+        <v>4.7267000000000003E-2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -920,25 +941,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>0.995224</v>
+        <v>0.81305300000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>0.99526999999999999</v>
+        <v>0.84508899999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>0.995224</v>
+        <v>0.81305300000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.995224</v>
+        <v>0.82876099999999997</v>
       </c>
       <c r="F11" s="1">
-        <v>0.99340899999999999</v>
+        <v>0.97027300000000005</v>
       </c>
       <c r="G11" s="1">
-        <v>2.1679999999999998E-3</v>
+        <v>1.4045999999999999E-2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -948,25 +969,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1">
-        <v>0.87719199999999997</v>
+        <v>0.72640099999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>0.88939599999999996</v>
+        <v>0.83656299999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>0.87719199999999997</v>
+        <v>0.72640099999999996</v>
       </c>
       <c r="E12" s="1">
-        <v>0.87637799999999999</v>
+        <v>0.77759900000000004</v>
       </c>
       <c r="F12" s="1">
-        <v>0.82296199999999997</v>
+        <v>0.74545799999999995</v>
       </c>
       <c r="G12" s="1">
-        <v>8.0461000000000005E-2</v>
+        <v>6.2139E-2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -976,25 +997,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
-        <v>0.87290900000000005</v>
+        <v>0.837758</v>
       </c>
       <c r="C13" s="1">
-        <v>0.87168800000000002</v>
+        <v>0.84722399999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>0.87290900000000005</v>
+        <v>0.837758</v>
       </c>
       <c r="E13" s="1">
-        <v>0.87202599999999997</v>
+        <v>0.84246399999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.75546100000000005</v>
+        <v>0.98187599999999997</v>
       </c>
       <c r="G13" s="1">
-        <v>6.2205000000000003E-2</v>
+        <v>3.032E-3</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1004,25 +1025,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>0.95317099999999999</v>
+        <v>0.74963100000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>0.95226599999999995</v>
+        <v>0.84543199999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>0.95317099999999999</v>
+        <v>0.74963100000000005</v>
       </c>
       <c r="E14" s="1">
-        <v>0.95269000000000004</v>
+        <v>0.79388499999999995</v>
       </c>
       <c r="F14" s="1">
-        <v>0.89203500000000002</v>
+        <v>0.76651100000000005</v>
       </c>
       <c r="G14" s="1">
-        <v>2.4125000000000001E-2</v>
+        <v>6.1303000000000003E-2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1032,25 +1053,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
-        <v>0.95464599999999999</v>
+        <v>0.85693200000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>0.95306199999999996</v>
+        <v>0.88605900000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>0.95464599999999999</v>
+        <v>0.85693200000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.95374599999999998</v>
+        <v>0.87021300000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>0.58931900000000004</v>
+        <v>0.84989700000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>2.988E-2</v>
+        <v>1.6285999999999998E-2</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1060,25 +1081,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
-        <v>0.99462700000000004</v>
+        <v>0.85508799999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>0.99468500000000004</v>
+        <v>0.88521499999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>0.99462700000000004</v>
+        <v>0.85508799999999996</v>
       </c>
       <c r="E16" s="1">
-        <v>0.99462700000000004</v>
+        <v>0.86882499999999996</v>
       </c>
       <c r="F16" s="1">
-        <v>0.98155400000000004</v>
+        <v>0.73649799999999999</v>
       </c>
       <c r="G16" s="1">
-        <v>1.6823999999999999E-2</v>
+        <v>1.4947E-2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1087,26 +1108,26 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>66</v>
+      <c r="A17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>0.99363299999999999</v>
+        <v>0.95317099999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>0.99371299999999996</v>
+        <v>0.95226599999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99363299999999999</v>
+        <v>0.95317099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.99363299999999999</v>
+        <v>0.95269000000000004</v>
       </c>
       <c r="F17" s="1">
-        <v>0.99181600000000003</v>
+        <v>0.89203500000000002</v>
       </c>
       <c r="G17" s="1">
-        <v>2.2269999999999998E-3</v>
+        <v>2.4125000000000001E-2</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1116,25 +1137,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
-        <v>0.95244700000000004</v>
+        <v>0.95464599999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.95638900000000004</v>
+        <v>0.95306199999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>0.95244700000000004</v>
+        <v>0.95464599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.95235599999999998</v>
+        <v>0.95374599999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>0.75136999999999998</v>
+        <v>0.58931900000000004</v>
       </c>
       <c r="G18" s="1">
-        <v>1.6913000000000001E-2</v>
+        <v>2.988E-2</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1144,25 +1165,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>0.88721799999999995</v>
+        <v>0.81157800000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>0.89971500000000004</v>
+        <v>0.84495799999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>0.88721799999999995</v>
+        <v>0.81157800000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.88646899999999995</v>
+        <v>0.82793099999999997</v>
       </c>
       <c r="F19" s="1">
-        <v>0.83726400000000001</v>
+        <v>0.96454200000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>8.5768999999999998E-2</v>
+        <v>1.4818E-2</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1172,25 +1193,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
-        <v>0.85953100000000004</v>
+        <v>0.81969000000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>0.86033099999999996</v>
+        <v>0.84567400000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>0.85953100000000004</v>
+        <v>0.81969000000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.85989000000000004</v>
+        <v>0.83247899999999997</v>
       </c>
       <c r="F20" s="1">
-        <v>0.77202000000000004</v>
+        <v>0.98015099999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>6.8898000000000001E-2</v>
+        <v>2.0409999999999998E-3</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1200,25 +1221,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
-        <v>0.94395200000000001</v>
+        <v>0.72640099999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>0.93708599999999997</v>
+        <v>0.84284899999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>0.94395200000000001</v>
+        <v>0.72640099999999996</v>
       </c>
       <c r="E21" s="1">
-        <v>0.93822499999999998</v>
+        <v>0.77935299999999996</v>
       </c>
       <c r="F21" s="1">
-        <v>0.89789799999999997</v>
+        <v>0.769011</v>
       </c>
       <c r="G21" s="1">
-        <v>1.6565E-2</v>
+        <v>6.9619E-2</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1228,25 +1249,25 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
-        <v>0.97114999999999996</v>
+        <v>0.85766900000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>0.97225099999999998</v>
+        <v>0.89392499999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>0.97114999999999996</v>
+        <v>0.85766900000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.971136</v>
+        <v>0.87334599999999996</v>
       </c>
       <c r="F22" s="1">
-        <v>0.95481000000000005</v>
+        <v>0.84612799999999999</v>
       </c>
       <c r="G22" s="1">
-        <v>3.8350000000000002E-2</v>
+        <v>2.3269000000000001E-2</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1256,25 +1277,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
-        <v>0.89724300000000001</v>
+        <v>0.85803799999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>0.90597799999999995</v>
+        <v>0.89243499999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>0.89724300000000001</v>
+        <v>0.85803799999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.89679200000000003</v>
+        <v>0.777536</v>
       </c>
       <c r="F23" s="1">
-        <v>0.83652099999999996</v>
+        <v>2.7598000000000001E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>8.5537000000000002E-2</v>
+        <v>2.7598000000000001E-2</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1283,26 +1304,26 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
+      <c r="A24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>0.87123700000000004</v>
+        <v>0.94395200000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.88120100000000001</v>
+        <v>0.93708599999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>0.87123700000000004</v>
+        <v>0.94395200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.87348000000000003</v>
+        <v>0.93822499999999998</v>
       </c>
       <c r="F24" s="1">
-        <v>0.76950700000000005</v>
+        <v>0.89789799999999997</v>
       </c>
       <c r="G24" s="1">
-        <v>7.5244000000000005E-2</v>
+        <v>1.6565E-2</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1312,25 +1333,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
-        <v>0.96054499999999998</v>
+        <v>0.71828899999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>0.95869700000000002</v>
+        <v>0.835669</v>
       </c>
       <c r="D25" s="1">
-        <v>0.96054499999999998</v>
+        <v>0.71828899999999996</v>
       </c>
       <c r="E25" s="1">
-        <v>0.95936900000000003</v>
+        <v>0.77254599999999995</v>
       </c>
       <c r="F25" s="1">
-        <v>0.890486</v>
+        <v>0.92794900000000002</v>
       </c>
       <c r="G25" s="1">
-        <v>2.4836E-2</v>
+        <v>2.4381E-2</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1340,25 +1361,25 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
-        <v>0.92293499999999995</v>
+        <v>0.72234500000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>0.91263899999999998</v>
+        <v>0.84286899999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>0.92293499999999995</v>
+        <v>0.72234500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.91670099999999999</v>
+        <v>0.77690300000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>0.91294200000000003</v>
+        <v>0.79462900000000003</v>
       </c>
       <c r="G26" s="1">
-        <v>1.2898E-2</v>
+        <v>5.5746999999999998E-2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1368,25 +1389,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
-        <v>0.97095100000000001</v>
+        <v>0.83996999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.97246699999999997</v>
+        <v>0.88772099999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>0.97095100000000001</v>
+        <v>0.83996999999999999</v>
       </c>
       <c r="E27" s="1">
-        <v>0.97093200000000002</v>
+        <v>0.86085100000000003</v>
       </c>
       <c r="F27" s="1">
-        <v>0.94973600000000002</v>
+        <v>0.85114199999999995</v>
       </c>
       <c r="G27" s="1">
-        <v>2.9672E-2</v>
+        <v>3.5895000000000003E-2</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1395,26 +1416,26 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
+      <c r="A28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B28" s="1">
-        <v>0.88471100000000003</v>
+        <v>0.96054499999999998</v>
       </c>
       <c r="C28" s="1">
-        <v>0.90277399999999997</v>
+        <v>0.95869700000000002</v>
       </c>
       <c r="D28" s="1">
-        <v>0.88471100000000003</v>
+        <v>0.96054499999999998</v>
       </c>
       <c r="E28" s="1">
-        <v>0.88357600000000003</v>
+        <v>0.95936900000000003</v>
       </c>
       <c r="F28" s="1">
-        <v>0.60541900000000004</v>
+        <v>0.890486</v>
       </c>
       <c r="G28" s="1">
-        <v>0.105502</v>
+        <v>2.4836E-2</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1424,25 +1445,25 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1">
-        <v>0.87959799999999999</v>
+        <v>0.92293499999999995</v>
       </c>
       <c r="C29" s="1">
-        <v>0.88510900000000003</v>
+        <v>0.91263899999999998</v>
       </c>
       <c r="D29" s="1">
-        <v>0.87959799999999999</v>
+        <v>0.92293499999999995</v>
       </c>
       <c r="E29" s="1">
-        <v>0.881104</v>
+        <v>0.91670099999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>0.77455499999999999</v>
+        <v>0.91294200000000003</v>
       </c>
       <c r="G29" s="1">
-        <v>5.5955999999999999E-2</v>
+        <v>1.2898E-2</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1452,25 +1473,25 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>0.924041</v>
+        <v>0.74262499999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>0.85385200000000006</v>
+        <v>0.83829600000000004</v>
       </c>
       <c r="D30" s="1">
-        <v>0.924041</v>
+        <v>0.74262499999999998</v>
       </c>
       <c r="E30" s="1">
-        <v>0.88756100000000004</v>
+        <v>0.78756599999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>0.92654800000000004</v>
+        <v>0.94836500000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>2.2100000000000001E-4</v>
+        <v>1.8338E-2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1480,25 +1501,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>0.84955700000000001</v>
+        <v>0.70206400000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>0.93253600000000003</v>
+        <v>0.84242300000000003</v>
       </c>
       <c r="D31" s="1">
-        <v>0.84955700000000001</v>
+        <v>0.70206400000000002</v>
       </c>
       <c r="E31" s="1">
-        <v>0.87794099999999997</v>
+        <v>0.764262</v>
       </c>
       <c r="F31" s="1">
-        <v>0.43592799999999998</v>
+        <v>0.78107899999999997</v>
       </c>
       <c r="G31" s="1">
-        <v>1.2791E-2</v>
+        <v>4.8225999999999998E-2</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1508,25 +1529,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.82351700000000005</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.83309200000000005</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.82351700000000005</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.82233699999999998</v>
+        <v>54</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.83923300000000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.88854</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.83923300000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.86067899999999997</v>
       </c>
       <c r="F32" s="1">
-        <v>0.80390399999999995</v>
+        <v>0.84336699999999998</v>
       </c>
       <c r="G32" s="1">
-        <v>3.4660999999999997E-2</v>
+        <v>1.3294E-2</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1536,17 +1557,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.924041</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.85385200000000006</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.924041</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.88756100000000004</v>
+      </c>
       <c r="F33" s="1">
-        <v>0.82466899999999999</v>
+        <v>0.92654800000000004</v>
       </c>
       <c r="G33" s="1">
-        <v>7.1919999999999996E-3</v>
+        <v>2.2100000000000001E-4</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1556,379 +1585,493 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1">
-        <v>0.82205499999999998</v>
+        <v>0.84955700000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>0.82931200000000005</v>
+        <v>0.93253600000000003</v>
       </c>
       <c r="D34" s="1">
-        <v>0.82205499999999998</v>
+        <v>0.84955700000000001</v>
       </c>
       <c r="E34" s="1">
-        <v>0.82127399999999995</v>
+        <v>0.87794099999999997</v>
       </c>
       <c r="F34" s="1">
-        <v>0.82444600000000001</v>
+        <v>0.43592799999999998</v>
       </c>
       <c r="G34" s="1">
-        <v>9.3392000000000003E-2</v>
+        <v>1.2791E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.78260799999999997</v>
+        <v>0.51069299999999995</v>
       </c>
       <c r="C35" s="1">
-        <v>0.81469599999999998</v>
+        <v>0.93424799999999997</v>
       </c>
       <c r="D35" s="1">
-        <v>0.78260799999999997</v>
+        <v>0.51069299999999995</v>
       </c>
       <c r="E35" s="1">
-        <v>0.78863399999999995</v>
+        <v>0.60928199999999999</v>
       </c>
       <c r="F35" s="1">
-        <v>0.80067600000000005</v>
+        <v>0.76366500000000004</v>
       </c>
       <c r="G35" s="1">
-        <v>5.1256000000000003E-2</v>
+        <v>4.5795000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1">
-        <v>0.93473399999999995</v>
+        <v>0.51069299999999995</v>
       </c>
       <c r="C36" s="1">
-        <v>0.92613000000000001</v>
+        <v>0.93424799999999997</v>
       </c>
       <c r="D36" s="1">
-        <v>0.93473399999999995</v>
+        <v>0.51069299999999995</v>
       </c>
       <c r="E36" s="1">
-        <v>0.92882699999999996</v>
+        <v>0.60928199999999999</v>
       </c>
       <c r="F36" s="1">
-        <v>0.90929199999999999</v>
+        <v>0.76366500000000004</v>
       </c>
       <c r="G36" s="1">
-        <v>1.5143E-2</v>
+        <v>4.5795000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1">
-        <v>0.94349300000000003</v>
+        <v>0.48967500000000003</v>
       </c>
       <c r="C37" s="1">
-        <v>0.94766899999999998</v>
+        <v>0.93388199999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>0.94349300000000003</v>
+        <v>0.48967500000000003</v>
       </c>
       <c r="E37" s="1">
-        <v>0.94337599999999999</v>
+        <v>0.58896499999999996</v>
       </c>
       <c r="F37" s="1">
-        <v>0.93618599999999996</v>
+        <v>0.80268300000000004</v>
       </c>
       <c r="G37" s="1">
-        <v>4.1694000000000002E-2</v>
+        <v>5.1649E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
-        <v>0.87468599999999996</v>
+        <v>0.924041</v>
       </c>
       <c r="C38" s="1">
-        <v>0.88356400000000002</v>
+        <v>0.85385200000000006</v>
       </c>
       <c r="D38" s="1">
-        <v>0.87468599999999996</v>
+        <v>0.924041</v>
       </c>
       <c r="E38" s="1">
-        <v>0.87409400000000004</v>
+        <v>0.88756100000000004</v>
       </c>
       <c r="F38" s="1">
-        <v>0.77326099999999998</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="G38" s="1">
-        <v>8.1559000000000006E-2</v>
+        <v>4.1800000000000002E-4</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1">
-        <v>0.867892</v>
+        <v>0.78392300000000004</v>
       </c>
       <c r="C39" s="1">
-        <v>0.89047200000000004</v>
+        <v>0.92678700000000003</v>
       </c>
       <c r="D39" s="1">
-        <v>0.867892</v>
+        <v>0.78392300000000004</v>
       </c>
       <c r="E39" s="1">
-        <v>0.87123799999999996</v>
+        <v>0.83169499999999996</v>
       </c>
       <c r="F39" s="1">
-        <v>0.79613100000000003</v>
+        <v>0.64107099999999995</v>
       </c>
       <c r="G39" s="1">
-        <v>6.2835000000000002E-2</v>
+        <v>2.1108999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
-        <v>0.91961599999999999</v>
+        <v>0.93473399999999995</v>
       </c>
       <c r="C40" s="1">
-        <v>0.85353999999999997</v>
+        <v>0.92613000000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>0.91961599999999999</v>
+        <v>0.93473399999999995</v>
       </c>
       <c r="E40" s="1">
-        <v>0.885347</v>
+        <v>0.92882699999999996</v>
       </c>
       <c r="F40" s="1">
-        <v>0.83517600000000003</v>
+        <v>0.90929199999999999</v>
       </c>
       <c r="G40" s="1">
-        <v>0.135517</v>
+        <v>1.5143E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
-        <v>0.64343600000000001</v>
+        <v>0.68584000000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>0.91691299999999998</v>
+        <v>0.83190500000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>0.64343600000000001</v>
+        <v>0.68584000000000001</v>
       </c>
       <c r="E41" s="1">
-        <v>0.72670199999999996</v>
+        <v>0.75184399999999996</v>
       </c>
       <c r="F41" s="1">
-        <v>0.32718599999999998</v>
+        <v>0.91051899999999997</v>
       </c>
       <c r="G41" s="1">
-        <v>9.1494000000000006E-2</v>
+        <v>2.6439000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1">
-        <v>0.49482599999999999</v>
+        <v>0.70611999999999997</v>
       </c>
       <c r="C42" s="1">
-        <v>0.425456</v>
+        <v>0.84099199999999996</v>
       </c>
       <c r="D42" s="1">
-        <v>0.49482599999999999</v>
+        <v>0.70611999999999997</v>
       </c>
       <c r="E42" s="1">
-        <v>0.33484999999999998</v>
+        <v>0.76648400000000005</v>
       </c>
       <c r="F42" s="1">
-        <v>0.60977800000000004</v>
+        <v>0.80266700000000002</v>
       </c>
       <c r="G42" s="1">
-        <v>0.21465000000000001</v>
+        <v>6.4481999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
-        <v>0.72622299999999995</v>
+        <v>0.86098799999999998</v>
       </c>
       <c r="C43" s="1">
-        <v>0.82341500000000001</v>
+        <v>0.89209899999999998</v>
       </c>
       <c r="D43" s="1">
-        <v>0.72622299999999995</v>
+        <v>0.86098799999999998</v>
       </c>
       <c r="E43" s="1">
-        <v>0.70452499999999996</v>
+        <v>0.87487400000000004</v>
       </c>
       <c r="F43" s="1">
-        <v>0.79925100000000004</v>
+        <v>0.83633100000000005</v>
       </c>
       <c r="G43" s="1">
-        <v>1.0730999999999999E-2</v>
+        <v>3.5716999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1">
-        <v>0.82205499999999998</v>
+        <v>0.91961599999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>0.82931200000000005</v>
+        <v>0.85353999999999997</v>
       </c>
       <c r="D44" s="1">
-        <v>0.82205499999999998</v>
+        <v>0.91961599999999999</v>
       </c>
       <c r="E44" s="1">
-        <v>0.82127399999999995</v>
+        <v>0.885347</v>
       </c>
       <c r="F44" s="1">
-        <v>0.73175199999999996</v>
+        <v>0.83517600000000003</v>
       </c>
       <c r="G44" s="1">
-        <v>0.132882</v>
+        <v>0.135517</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
-        <v>0.79598599999999997</v>
+        <v>0.64343600000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>0.79710199999999998</v>
+        <v>0.91691299999999998</v>
       </c>
       <c r="D45" s="1">
-        <v>0.79598599999999997</v>
+        <v>0.64343600000000001</v>
       </c>
       <c r="E45" s="1">
-        <v>0.79650600000000005</v>
+        <v>0.72670199999999996</v>
       </c>
       <c r="F45" s="1">
-        <v>0.69521599999999995</v>
+        <v>0.32718599999999998</v>
       </c>
       <c r="G45" s="1">
-        <v>8.8705999999999993E-2</v>
+        <v>9.1494000000000006E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1">
-        <v>0.95648900000000003</v>
+        <v>0.48672500000000002</v>
       </c>
       <c r="C46" s="1">
-        <v>0.95288799999999996</v>
+        <v>0.93383300000000002</v>
       </c>
       <c r="D46" s="1">
-        <v>0.95648900000000003</v>
+        <v>0.48672500000000002</v>
       </c>
       <c r="E46" s="1">
-        <v>0.95317399999999997</v>
+        <v>0.58606599999999998</v>
       </c>
       <c r="F46" s="1">
-        <v>0.898119</v>
+        <v>0.75757600000000003</v>
       </c>
       <c r="G46" s="1">
-        <v>1.9928000000000001E-2</v>
+        <v>3.7629000000000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1">
-        <v>0.95575200000000005</v>
+        <v>0.81379000000000001</v>
       </c>
       <c r="C47" s="1">
-        <v>0.95256099999999999</v>
+        <v>0.92966199999999999</v>
       </c>
       <c r="D47" s="1">
-        <v>0.95575200000000005</v>
+        <v>0.81379000000000001</v>
       </c>
       <c r="E47" s="1">
-        <v>0.95342400000000005</v>
+        <v>0.85288200000000003</v>
       </c>
       <c r="F47" s="1">
-        <v>0.89723399999999998</v>
+        <v>0.79436399999999996</v>
       </c>
       <c r="G47" s="1">
-        <v>2.1593000000000001E-2</v>
+        <v>1.6140000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.57964599999999999</v>
       </c>
       <c r="C48" s="1">
-        <v>0.93826699999999996</v>
+        <v>0.935666</v>
       </c>
       <c r="D48" s="1">
-        <v>0.94505799999999995</v>
+        <v>0.57964599999999999</v>
       </c>
       <c r="E48" s="1">
-        <v>0.93690200000000001</v>
+        <v>0.67214700000000005</v>
       </c>
       <c r="F48" s="1">
-        <v>0.90652600000000005</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="G48" s="1">
-        <v>1.6396000000000001E-2</v>
+        <v>0.109491</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.83849499999999999</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.93248699999999995</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.83849499999999999</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.81776899999999997</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3.5595000000000002E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3.5595000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.90597300000000003</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.85434299999999996</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.90597300000000003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.87902899999999995</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.51940900000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6.3275999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.95648900000000003</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.95288799999999996</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.95648900000000003</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.95317399999999997</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.898119</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.9928000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.95575200000000005</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.95256099999999999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.95575200000000005</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.95342400000000005</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.89723399999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.1593000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.94505799999999995</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.93826699999999996</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.94505799999999995</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.93690200000000001</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.90652600000000005</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.6396000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B54" s="1">
         <v>0.95538299999999998</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C54" s="1">
         <v>0.95209900000000003</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D54" s="1">
         <v>0.95538299999999998</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E54" s="1">
         <v>0.95297299999999996</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F54" s="1">
         <v>0.89734499999999995</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G54" s="1">
         <v>2.1588E-2</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1977,12 +2120,12 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="172.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2027,8 +2170,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -2124,5 +2271,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Feature Data.xlsx
+++ b/Feature Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stajyer\Documents\GitHub\milling-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80A5481-8EFE-4B4F-9F84-037C35EB3A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7601B25-F4CE-44FF-A761-F0C73D589C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{67E0F688-C1AF-42C8-9D95-4B3A27CBFA27}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5264A-4086-46D9-8AD8-B7539128CB63}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,10 +1942,10 @@
         <v>0.83849499999999999</v>
       </c>
       <c r="E49" s="1">
+        <v>0.87033700000000003</v>
+      </c>
+      <c r="F49" s="1">
         <v>0.81776899999999997</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3.5595000000000002E-2</v>
       </c>
       <c r="G49" s="1">
         <v>3.5595000000000002E-2</v>
